--- a/BiosimilarCalculator/data/BiosimilarCalculator_Testdata.xlsx
+++ b/BiosimilarCalculator/data/BiosimilarCalculator_Testdata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gnathan\Desktop\Automation - Non CRM\BiosimilarCalculator\TestNG\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gnathan\git\BiosimilarCalculator_PINC AI\BiosimilarCalculator\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{758CA99B-C4C3-4E7A-B2DC-4CE587DE8C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2860882-4D3D-44AA-AE0A-EC9B0C2F3B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5BACFAA2-8771-42A2-BEA6-F679A39DDCB4}"/>
   </bookViews>
@@ -154,7 +154,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="307">
   <si>
     <t>S.No</t>
   </si>
@@ -1056,12 +1056,6 @@
     <t>PASSED</t>
   </si>
   <si>
-    <t>2022_12_28_04_45_39</t>
-  </si>
-  <si>
-    <t>2022_12_28_04_49_15</t>
-  </si>
-  <si>
     <t>TC_01:DrugDashboard_Add_Mandatory</t>
   </si>
   <si>
@@ -1071,7 +1065,16 @@
     <t>PriAutoTes2</t>
   </si>
   <si>
-    <t>2022_12_28_07_14_53</t>
+    <t>2022_12_28_08_09_35</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>2022_12_28_08_56_59</t>
+  </si>
+  <si>
+    <t>2022_12_28_09_07_01</t>
   </si>
 </sst>
 </file>
@@ -1079,7 +1082,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1140,12 +1143,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1651,7 +1648,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1701,7 +1698,7 @@
         <v>169</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
         <v>168</v>
@@ -1710,10 +1707,10 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="G2" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>163</v>
@@ -1795,22 +1792,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="G6" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -2413,8 +2410,7 @@
     <col min="66" max="66" bestFit="true" customWidth="true" style="2" width="20.5546875" collapsed="true"/>
     <col min="67" max="67" bestFit="true" customWidth="true" style="2" width="16.44140625" collapsed="true"/>
     <col min="68" max="68" bestFit="true" customWidth="true" style="2" width="23.77734375" collapsed="true"/>
-    <col min="69" max="71" style="2" width="51.6640625" collapsed="false"/>
-    <col min="72" max="16384" style="2" width="51.6640625" collapsed="true"/>
+    <col min="69" max="16384" style="2" width="51.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:68" x14ac:dyDescent="0.3">
@@ -4633,8 +4629,7 @@
     <col min="38" max="38" bestFit="true" customWidth="true" style="2" width="38.44140625" collapsed="true"/>
     <col min="39" max="39" bestFit="true" customWidth="true" style="2" width="22.21875" collapsed="true"/>
     <col min="40" max="40" bestFit="true" customWidth="true" style="2" width="10.6640625" collapsed="true"/>
-    <col min="41" max="68" style="2" width="51.6640625" collapsed="false"/>
-    <col min="69" max="16384" style="2" width="51.6640625" collapsed="true"/>
+    <col min="41" max="16384" style="2" width="51.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.3">
@@ -4764,7 +4759,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C2" s="29" t="s">
         <v>165</v>
@@ -4807,7 +4802,7 @@
         <v>8</v>
       </c>
       <c r="Q2" s="23" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="R2" s="23" t="s">
         <v>208</v>
@@ -4926,12 +4921,16 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0be14d6d-d8a1-45f7-9f98-2db40f8691c4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="567c5c99-f8da-409a-bc28-51b94ad9a241" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5195,22 +5194,22 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0be14d6d-d8a1-45f7-9f98-2db40f8691c4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="567c5c99-f8da-409a-bc28-51b94ad9a241" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35022814-191A-40E8-9168-D8660F648384}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E9D7155-2953-443C-967A-5BDF0265F111}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="0be14d6d-d8a1-45f7-9f98-2db40f8691c4"/>
+    <ds:schemaRef ds:uri="567c5c99-f8da-409a-bc28-51b94ad9a241"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5236,13 +5235,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E9D7155-2953-443C-967A-5BDF0265F111}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35022814-191A-40E8-9168-D8660F648384}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="0be14d6d-d8a1-45f7-9f98-2db40f8691c4"/>
-    <ds:schemaRef ds:uri="567c5c99-f8da-409a-bc28-51b94ad9a241"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>